--- a/IV_Array/Large_Connector_Interface/Project Outputs/BOM/Bill of Materials-Large_Connector_Interface.xlsx
+++ b/IV_Array/Large_Connector_Interface/Project Outputs/BOM/Bill of Materials-Large_Connector_Interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\UROP_S2022\IV_Array\Large_Connector_Interface\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F86788-EFF8-4C0E-9DF4-AB1D454C14B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F20ABB-72AE-4EC8-AD87-11D55C89886A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{CC6DE2B6-AB26-4454-8986-0945CDF1D3A8}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{5F6A0E2E-F74E-461E-9D8C-5FB355755F88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Large_Connect" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB3C807-7EAB-489A-929D-B4B4A051C3E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AAA28B-A311-4515-834E-741FCF7E6E77}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
